--- a/Raw_data_cleaned/Burley/Burley22.xlsx
+++ b/Raw_data_cleaned/Burley/Burley22.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDA2F53-61B8-4BDC-90DA-D45D0A5EB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{087B8BE6-9064-4EEE-873C-0807D45748D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="3790" windowWidth="28740" windowHeight="15370" xr2:uid="{C635D291-D2F2-4AEE-9E93-BFE1BD30F625}"/>
+    <workbookView xWindow="8360" yWindow="2250" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,15 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,18 +69,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{01B03BF0-4897-4FB2-804D-FE6917B7D204}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,7 +110,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +122,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,23 +169,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,23 +204,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,11 +355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56581135-BFA2-4C13-BE03-D6443D913B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="A1:BE431"/>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection sqref="A1:BE431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Raw_data_cleaned/Burley/Burley22.xlsx
+++ b/Raw_data_cleaned/Burley/Burley22.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDA2F53-61B8-4BDC-90DA-D45D0A5EB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{635CE935-0766-9245-BFD8-169A75364ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="3790" windowWidth="28740" windowHeight="15370" xr2:uid="{C635D291-D2F2-4AEE-9E93-BFE1BD30F625}"/>
+    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,19 +37,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -87,18 +69,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{01B03BF0-4897-4FB2-804D-FE6917B7D204}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,7 +110,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +122,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,23 +169,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,23 +204,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56581135-BFA2-4C13-BE03-D6443D913B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
   <dimension ref="A1:BE431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="A1:BE431"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="32" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6.3900000000000003E-4</v>
       </c>
@@ -764,7 +710,7 @@
         <v>285.02839307960699</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.2780000000000001E-3</v>
       </c>
@@ -937,7 +883,7 @@
         <v>279.10946858030252</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.9170000000000001E-3</v>
       </c>
@@ -1110,7 +1056,7 @@
         <v>274.04419046350796</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.5560000000000001E-3</v>
       </c>
@@ -1283,7 +1229,7 @@
         <v>269.5058219689576</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.1949999999999999E-3</v>
       </c>
@@ -1456,7 +1402,7 @@
         <v>265.34754047214909</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4.4730000000000004E-3</v>
       </c>
@@ -1629,7 +1575,7 @@
         <v>257.86559432964782</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8.9460000000000008E-3</v>
       </c>
@@ -1802,7 +1748,7 @@
         <v>237.02304206497178</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9.5849999999999998E-3</v>
       </c>
@@ -1975,7 +1921,7 @@
         <v>234.50403063401501</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1.0224E-2</v>
       </c>
@@ -2148,7 +2094,7 @@
         <v>232.07120857619813</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1.0862999999999999E-2</v>
       </c>
@@ -2321,7 +2267,7 @@
         <v>229.71829584716448</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1.1502E-2</v>
       </c>
@@ -2494,7 +2440,7 @@
         <v>227.43976834339512</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1.2141000000000001E-2</v>
       </c>
@@ -2667,7 +2613,7 @@
         <v>225.23073045822545</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1.278E-2</v>
       </c>
@@ -2840,7 +2786,7 @@
         <v>223.0868148261672</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1.3419E-2</v>
       </c>
@@ -3013,7 +2959,7 @@
         <v>221.00410235634982</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1.4057999999999999E-2</v>
       </c>
@@ -3186,7 +3132,7 @@
         <v>218.97905765784679</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1.7252E-2</v>
       </c>
@@ -3359,7 +3305,7 @@
         <v>209.61878974126074</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2.4281E-2</v>
       </c>
@@ -3532,7 +3478,7 @@
         <v>192.4590545415474</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2.9392999999999999E-2</v>
       </c>
@@ -3705,7 +3651,7 @@
         <v>182.12598854878917</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.1309999999999998E-2</v>
       </c>
@@ -3878,7 +3824,7 @@
         <v>178.60902444147516</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4.0256E-2</v>
       </c>
@@ -4051,7 +3997,7 @@
         <v>164.21556057763107</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>4.4727999999999997E-2</v>
       </c>
@@ -4224,7 +4170,7 @@
         <v>158.03010991348563</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4.6644999999999999E-2</v>
       </c>
@@ -4397,7 +4343,7 @@
         <v>155.54744069000361</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>4.9840000000000002E-2</v>
       </c>
@@ -4570,7 +4516,7 @@
         <v>151.6109240549533</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5.1117999999999997E-2</v>
       </c>
@@ -4743,7 +4689,7 @@
         <v>150.1019135938146</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>5.2395999999999998E-2</v>
       </c>
@@ -4916,7 +4862,7 @@
         <v>148.62811693947157</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>5.3034999999999999E-2</v>
       </c>
@@ -5089,7 +5035,7 @@
         <v>147.90398562500741</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>5.3673999999999999E-2</v>
       </c>
@@ -5262,7 +5208,7 @@
         <v>147.18814211181797</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>5.6230000000000002E-2</v>
       </c>
@@ -5435,7 +5381,7 @@
         <v>144.40448062759313</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>6.0703E-2</v>
       </c>
@@ -5608,7 +5554,7 @@
         <v>139.81769044784554</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>6.7732000000000001E-2</v>
       </c>
@@ -5781,7 +5727,7 @@
         <v>133.25149248025548</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>7.4121000000000006E-2</v>
       </c>
@@ -5954,7 +5900,7 @@
         <v>127.86386237111908</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>7.5398999999999994E-2</v>
       </c>
@@ -6127,7 +6073,7 @@
         <v>126.84474431776196</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>8.0510999999999999E-2</v>
       </c>
@@ -6300,7 +6246,7 @@
         <v>122.94462807929999</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>8.3706000000000003E-2</v>
       </c>
@@ -6473,7 +6419,7 @@
         <v>120.64026897454791</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>8.5623000000000005E-2</v>
       </c>
@@ -6646,7 +6592,7 @@
         <v>119.30322459366373</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>9.5847000000000002E-2</v>
       </c>
@@ -6819,7 +6765,7 @@
         <v>112.690840981645</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.10159700000000001</v>
       </c>
@@ -6992,7 +6938,7 @@
         <v>109.31224764531562</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.104153</v>
       </c>
@@ -7165,7 +7111,7 @@
         <v>107.88002822209059</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.104792</v>
       </c>
@@ -7338,7 +7284,7 @@
         <v>107.52830462598224</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.111182</v>
       </c>
@@ -7511,7 +7457,7 @@
         <v>104.1425590349601</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.139297</v>
       </c>
@@ -7684,7 +7630,7 @@
         <v>91.590271126589755</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.14888199999999999</v>
       </c>
@@ -7857,7 +7803,7 @@
         <v>88.003829751825123</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.15335499999999999</v>
       </c>
@@ -8030,7 +7976,7 @@
         <v>86.427690265900424</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.15463299999999999</v>
       </c>
@@ -8203,7 +8149,7 @@
         <v>85.987985844610904</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0.157827</v>
       </c>
@@ -8376,7 +8322,7 @@
         <v>84.908902442644148</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0.158466</v>
       </c>
@@ -8549,7 +8495,7 @@
         <v>84.696343520411389</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.161661</v>
       </c>
@@ -8722,7 +8668,7 @@
         <v>83.649679030136241</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0.162939</v>
       </c>
@@ -8895,7 +8841,7 @@
         <v>83.238376917861373</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0.166773</v>
       </c>
@@ -9068,7 +9014,7 @@
         <v>82.028841174701128</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.16741200000000001</v>
       </c>
@@ -9241,7 +9187,7 @@
         <v>81.830720907750731</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0.16932900000000001</v>
       </c>
@@ -9414,7 +9360,7 @@
         <v>81.242150423686113</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0.17252400000000001</v>
       </c>
@@ -9587,7 +9533,7 @@
         <v>80.280050086424026</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0.17763599999999999</v>
       </c>
@@ -9760,7 +9706,7 @@
         <v>78.787712070734059</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0.17955299999999999</v>
       </c>
@@ -9933,7 +9879,7 @@
         <v>78.242406423644326</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0.191693</v>
       </c>
@@ -10106,7 +10052,7 @@
         <v>74.957470118016062</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0.19872200000000001</v>
       </c>
@@ -10279,7 +10225,7 @@
         <v>73.178291746304268</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0.19936100000000001</v>
       </c>
@@ -10452,7 +10398,7 @@
         <v>73.020694588928833</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0.2</v>
       </c>
@@ -10625,7 +10571,7 @@
         <v>72.863767914727859</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0.20319499999999999</v>
       </c>
@@ -10798,7 +10744,7 @@
         <v>72.089032693102496</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0.20575099999999999</v>
       </c>
@@ -10971,7 +10917,7 @@
         <v>71.48085655984066</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0.20830699999999999</v>
       </c>
@@ -11144,7 +11090,7 @@
         <v>70.882705105557136</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0.213419</v>
       </c>
@@ -11317,7 +11263,7 @@
         <v>69.715431303241402</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0.214696</v>
       </c>
@@ -11490,7 +11436,7 @@
         <v>69.429700674633594</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0.216613</v>
       </c>
@@ -11663,7 +11609,7 @@
         <v>69.005044073191669</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0.22683700000000001</v>
       </c>
@@ -11836,7 +11782,7 @@
         <v>66.823117004115517</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.22939300000000001</v>
       </c>
@@ -12009,7 +11955,7 @@
         <v>66.298427513398721</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0.23003199999999999</v>
       </c>
@@ -12182,7 +12128,7 @@
         <v>66.168499108512009</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0.23067099999999999</v>
       </c>
@@ -12355,7 +12301,7 @@
         <v>66.039062237413958</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.240895</v>
       </c>
@@ -12528,7 +12474,7 @@
         <v>64.032561970359055</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0.242812</v>
       </c>
@@ -12701,7 +12647,7 @@
         <v>63.669331642384968</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0.244089</v>
       </c>
@@ -12874,7 +12820,7 @@
         <v>63.429551274892468</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0.247923</v>
       </c>
@@ -13047,7 +12993,7 @@
         <v>62.719917867991448</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0.25047900000000001</v>
       </c>
@@ -13220,7 +13166,7 @@
         <v>62.255195433604008</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0.25111800000000001</v>
       </c>
@@ -13393,7 +13339,7 @@
         <v>62.140038935063082</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0.25175700000000001</v>
       </c>
@@ -13566,7 +13512,7 @@
         <v>62.025287456555155</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0.25239600000000001</v>
       </c>
@@ -13739,7 +13685,7 @@
         <v>61.910938717669445</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0.25559100000000001</v>
       </c>
@@ -13912,7 +13858,7 @@
         <v>61.345157536478844</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0.25750800000000001</v>
       </c>
@@ -14085,7 +14031,7 @@
         <v>61.010379563355805</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0.26262000000000002</v>
       </c>
@@ -14258,7 +14204,7 @@
         <v>60.134337500418773</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0.26325900000000002</v>
       </c>
@@ -14431,7 +14377,7 @@
         <v>60.026502978479762</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0.26389800000000002</v>
       </c>
@@ -14604,7 +14550,7 @@
         <v>59.91903302193041</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0.26837100000000003</v>
       </c>
@@ -14777,7 +14723,7 @@
         <v>59.176787406198109</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0.27092699999999997</v>
       </c>
@@ -14950,7 +14896,7 @@
         <v>58.760371378366919</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0.271565</v>
       </c>
@@ -15123,7 +15069,7 @@
         <v>58.657287866202672</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0.272843</v>
       </c>
@@ -15296,7 +15242,7 @@
         <v>58.451815525606314</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0.27667700000000001</v>
       </c>
@@ -15469,7 +15415,7 @@
         <v>57.843418134629097</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0.27731600000000001</v>
       </c>
@@ -15642,7 +15588,7 @@
         <v>57.743169871320696</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0.27795500000000001</v>
       </c>
@@ -15815,7 +15761,7 @@
         <v>57.643246005192957</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0.27859400000000001</v>
       </c>
@@ -15988,7 +15934,7 @@
         <v>57.54364485887691</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0.28051100000000001</v>
       </c>
@@ -16161,7 +16107,7 @@
         <v>57.246761144155833</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0.28370600000000001</v>
       </c>
@@ -16334,7 +16280,7 @@
         <v>56.758256220717648</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0.28562300000000002</v>
       </c>
@@ -16507,7 +16453,7 @@
         <v>56.468863805990189</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0.28626200000000002</v>
       </c>
@@ -16680,7 +16626,7 @@
         <v>56.373008716206222</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0.28754000000000002</v>
       </c>
@@ -16853,7 +16799,7 @@
         <v>56.182202914090659</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0.29393000000000002</v>
       </c>
@@ -17026,7 +16972,7 @@
         <v>55.245873891574</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0.29648600000000003</v>
       </c>
@@ -17199,7 +17145,7 @@
         <v>54.879386097818134</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0.29712499999999997</v>
       </c>
@@ -17372,7 +17318,7 @@
         <v>54.788464772415985</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0.29840299999999997</v>
       </c>
@@ -17545,7 +17491,7 @@
         <v>54.607453309359848</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0.29968099999999998</v>
       </c>
@@ -17718,7 +17664,7 @@
         <v>54.427541129491338</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0.300958</v>
       </c>
@@ -17891,7 +17837,7 @@
         <v>54.248857099843754</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0.301597</v>
       </c>
@@ -18064,7 +18010,7 @@
         <v>54.159849872085836</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0.302236</v>
       </c>
@@ -18237,7 +18183,7 @@
         <v>54.071110884580683</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0.30415300000000001</v>
       </c>
@@ -18410,7 +18356,7 @@
         <v>53.806490507476106</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0.30479200000000001</v>
       </c>
@@ -18583,7 +18529,7 @@
         <v>53.718811667379377</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0.30543100000000001</v>
       </c>
@@ -18756,7 +18702,7 @@
         <v>53.63139470298561</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0.30670900000000001</v>
       </c>
@@ -18929,7 +18875,7 @@
         <v>53.457341418275909</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0.30798700000000001</v>
       </c>
@@ -19102,7 +19048,7 @@
         <v>53.284320768901161</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0.30862600000000001</v>
       </c>
@@ -19275,7 +19221,7 @@
         <v>53.198194628923325</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0.30990400000000001</v>
       </c>
@@ -19448,7 +19394,7 @@
         <v>53.026704680939226</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0.31054300000000001</v>
       </c>
@@ -19621,7 +19567,7 @@
         <v>52.941338481510506</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0.31182100000000001</v>
       </c>
@@ -19794,7 +19740,7 @@
         <v>52.771357711333089</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0.31373800000000002</v>
       </c>
@@ -19967,7 +19913,7 @@
         <v>52.518248095411487</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0.31821100000000002</v>
       </c>
@@ -20140,7 +20086,7 @@
         <v>51.936185927833257</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0.32140600000000003</v>
       </c>
@@ -20313,7 +20259,7 @@
         <v>51.527568954264773</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0.32204500000000003</v>
       </c>
@@ -20486,7 +20432,7 @@
         <v>51.446545615617502</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0.32396200000000003</v>
       </c>
@@ -20659,7 +20605,7 @@
         <v>51.204856656988021</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0.32460099999999997</v>
       </c>
@@ -20832,7 +20778,7 @@
         <v>51.124750549711941</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0.32523999999999997</v>
       </c>
@@ -21005,7 +20951,7 @@
         <v>51.044871161409979</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0.32587899999999997</v>
       </c>
@@ -21178,7 +21124,7 @@
         <v>50.965217469433092</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0.32715699999999998</v>
       </c>
@@ -21351,7 +21297,7 @@
         <v>50.80658311560456</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0.329073</v>
       </c>
@@ -21524,7 +21470,7 @@
         <v>50.57042184347015</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0.32971200000000001</v>
       </c>
@@ -21697,7 +21643,7 @@
         <v>50.492100863388366</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0.33035100000000001</v>
       </c>
@@ -21870,7 +21816,7 @@
         <v>50.413998597882475</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0.33162900000000001</v>
       </c>
@@ -22043,7 +21989,7 @@
         <v>50.258446323882019</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0.33226800000000001</v>
       </c>
@@ -22216,7 +22162,7 @@
         <v>50.180994386903983</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0.33290700000000001</v>
       </c>
@@ -22389,7 +22335,7 @@
         <v>50.103757307441846</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0.33354600000000001</v>
       </c>
@@ -22562,7 +22508,7 @@
         <v>50.026734135919945</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0.33546300000000001</v>
       </c>
@@ -22735,7 +22681,7 @@
         <v>49.79693865973281</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0.33610200000000001</v>
       </c>
@@ -22908,7 +22854,7 @@
         <v>49.720761739227036</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0.33738000000000001</v>
       </c>
@@ -23081,7 +23027,7 @@
         <v>49.56903472047231</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0.33801900000000001</v>
       </c>
@@ -23254,7 +23200,7 @@
         <v>49.493482796669646</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0.33865800000000001</v>
       </c>
@@ -23427,7 +23373,7 @@
         <v>49.418137388705865</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0.33993600000000002</v>
       </c>
@@ -23600,7 +23546,7 @@
         <v>49.268062529277564</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0.34185300000000002</v>
       </c>
@@ -23773,7 +23719,7 @@
         <v>49.044476805797565</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0.34377000000000002</v>
       </c>
@@ -23946,7 +23892,7 @@
         <v>48.822701925274281</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0.34440900000000002</v>
       </c>
@@ -24119,7 +24065,7 @@
         <v>48.749175338938393</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0.34568700000000002</v>
       </c>
@@ -24292,7 +24238,7 @@
         <v>48.602714607282685</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0.34696500000000002</v>
       </c>
@@ -24465,7 +24411,7 @@
         <v>48.45703817542185</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0.34760400000000002</v>
       </c>
@@ -24638,7 +24584,7 @@
         <v>48.384491982429758</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0.34824300000000002</v>
       </c>
@@ -24811,7 +24757,7 @@
         <v>48.31213936682051</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0.35335499999999997</v>
       </c>
@@ -24984,7 +24930,7 @@
         <v>47.740189546019351</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0.35399399999999998</v>
       </c>
@@ -25157,7 +25103,7 @@
         <v>47.669542690642523</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0.35591099999999998</v>
       </c>
@@ -25330,7 +25276,7 @@
         <v>47.458712422278012</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0.35782700000000001</v>
       </c>
@@ -25503,7 +25449,7 @@
         <v>47.249640141045461</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>0.35846600000000001</v>
       </c>
@@ -25676,7 +25622,7 @@
         <v>47.180275828803161</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>0.36166100000000001</v>
       </c>
@@ -25849,7 +25795,7 @@
         <v>46.836142865089101</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>0.36230000000000001</v>
       </c>
@@ -26022,7 +25968,7 @@
         <v>46.767848834269998</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>0.36357800000000001</v>
       </c>
@@ -26195,7 +26141,7 @@
         <v>46.63178751513869</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>0.36485600000000001</v>
       </c>
@@ -26368,7 +26314,7 @@
         <v>46.496423738139313</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>0.36549500000000001</v>
       </c>
@@ -26541,7 +26487,7 @@
         <v>46.42900165011023</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>0.36677300000000002</v>
       </c>
@@ -26714,7 +26660,7 @@
         <v>46.294673554222776</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>0.36869000000000002</v>
       </c>
@@ -26887,7 +26833,7 @@
         <v>46.094461166413033</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>0.36932900000000002</v>
       </c>
@@ -27060,7 +27006,7 @@
         <v>46.028062214066118</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>0.37252400000000002</v>
       </c>
@@ -27233,7 +27179,7 @@
         <v>45.698575723552302</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0.37380200000000002</v>
       </c>
@@ -27406,7 +27352,7 @@
         <v>45.567939171154642</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>0.37635800000000003</v>
       </c>
@@ -27579,7 +27525,7 @@
         <v>45.308622344492868</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0.37699700000000003</v>
       </c>
@@ -27752,7 +27698,7 @@
         <v>45.244196922030724</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>0.37763600000000003</v>
       </c>
@@ -27925,7 +27871,7 @@
         <v>45.179931733529386</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>0.37891399999999997</v>
       </c>
@@ -28098,7 +28044,7 @@
         <v>45.051879526841816</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>0.37955299999999997</v>
       </c>
@@ -28271,7 +28217,7 @@
         <v>44.98809125147352</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>0.38019199999999997</v>
       </c>
@@ -28444,7 +28390,7 @@
         <v>44.924460695654162</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>0.38402599999999998</v>
       </c>
@@ -28617,7 +28563,7 @@
         <v>44.545954979458884</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>0.38530399999999998</v>
       </c>
@@ -28790,7 +28736,7 @@
         <v>44.421020440150045</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>0.38722000000000001</v>
       </c>
@@ -28963,7 +28909,7 @@
         <v>44.2348559024773</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>0.38785900000000001</v>
       </c>
@@ -29136,7 +29082,7 @@
         <v>44.173070322026227</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>0.38977600000000001</v>
       </c>
@@ -29309,7 +29255,7 @@
         <v>43.988610757483833</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>0.39169300000000001</v>
       </c>
@@ -29482,7 +29428,7 @@
         <v>43.805484911523216</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>0.39424900000000002</v>
       </c>
@@ -29655,7 +29601,7 @@
         <v>43.563365406954745</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>0.39616600000000002</v>
       </c>
@@ -29828,7 +29774,7 @@
         <v>43.38329254518063</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>0.4</v>
       </c>
@@ -30001,7 +29947,7 @@
         <v>43.026983407174313</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>0.40702899999999997</v>
       </c>
@@ -30174,7 +30120,7 @@
         <v>42.386707129870736</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>0.40766799999999997</v>
       </c>
@@ -30347,7 +30293,7 @@
         <v>42.329313188580713</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>0.41150199999999998</v>
       </c>
@@ -30520,7 +30466,7 @@
         <v>41.987732295758015</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>0.41214099999999998</v>
       </c>
@@ -30693,7 +30639,7 @@
         <v>41.931261404935221</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>0.41405799999999998</v>
       </c>
@@ -30866,7 +30812,7 @@
         <v>41.762626449442863</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>0.41469600000000001</v>
       </c>
@@ -31039,7 +30985,7 @@
         <v>41.706759926350948</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>0.41597400000000001</v>
       </c>
@@ -31212,7 +31158,7 @@
         <v>41.595235237073567</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>0.41661300000000001</v>
       </c>
@@ -31385,7 +31331,7 @@
         <v>41.539663807867733</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>0.41916900000000001</v>
       </c>
@@ -31558,7 +31504,7 @@
         <v>41.318640135330519</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>0.41980800000000001</v>
       </c>
@@ -31731,7 +31677,7 @@
         <v>41.26369745282063</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>0.42044700000000002</v>
       </c>
@@ -31904,7 +31850,7 @@
         <v>41.208879162279089</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>0.42172500000000002</v>
       </c>
@@ -32077,7 +32023,7 @@
         <v>41.099613970384262</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>0.42236400000000002</v>
       </c>
@@ -32250,7 +32196,7 @@
         <v>41.045166181186211</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>0.42300300000000002</v>
       </c>
@@ -32423,7 +32369,7 @@
         <v>40.990841008239229</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>0.42428100000000002</v>
       </c>
@@ -32596,7 +32542,7 @@
         <v>40.882556759370061</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>0.42492000000000002</v>
       </c>
@@ -32769,7 +32715,7 @@
         <v>40.828596812959965</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>0.42939300000000002</v>
       </c>
@@ -32942,7 +32888,7 @@
         <v>40.454237765507102</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>0.43003200000000003</v>
       </c>
@@ -33115,7 +33061,7 @@
         <v>40.401232899921361</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>0.43067100000000003</v>
       </c>
@@ -33288,7 +33234,7 @@
         <v>40.34834552830052</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>0.43514399999999998</v>
       </c>
@@ -33461,7 +33407,7 @@
         <v>39.981389276983741</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>0.43642199999999998</v>
       </c>
@@ -33634,7 +33580,7 @@
         <v>39.877578844028328</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>0.43769999999999998</v>
       </c>
@@ -33807,7 +33753,7 @@
         <v>39.774222204236651</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>0.43897799999999998</v>
       </c>
@@ -33980,7 +33926,7 @@
         <v>39.671316213021122</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>0.44089499999999998</v>
       </c>
@@ -34153,7 +34099,7 @@
         <v>39.517795387019255</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>0.44536700000000001</v>
       </c>
@@ -34326,7 +34272,7 @@
         <v>39.163516623536353</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>0.44600600000000001</v>
       </c>
@@ -34499,7 +34445,7 @@
         <v>39.113329346628063</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>0.44920100000000002</v>
       </c>
@@ -34672,7 +34618,7 @@
         <v>38.864001608108737</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>0.45239600000000002</v>
       </c>
@@ -34845,7 +34791,7 @@
         <v>38.617321775960498</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>0.45495200000000002</v>
       </c>
@@ -35018,7 +34964,7 @@
         <v>38.421854533276296</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>0.45623000000000002</v>
       </c>
@@ -35191,7 +35137,7 @@
         <v>38.32473877412243</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>0.46006399999999997</v>
       </c>
@@ -35364,7 +35310,7 @@
         <v>38.035830089015235</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>0.46198099999999998</v>
       </c>
@@ -35537,7 +35483,7 @@
         <v>37.8927308024615</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>0.46709299999999998</v>
       </c>
@@ -35710,7 +35656,7 @@
         <v>37.515467103488113</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>0.47028799999999998</v>
       </c>
@@ -35883,7 +35829,7 @@
         <v>37.282823181923291</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>0.47476000000000002</v>
       </c>
@@ -36056,7 +36002,7 @@
         <v>36.961170959193417</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>0.47859400000000002</v>
       </c>
@@ -36229,7 +36175,7 @@
         <v>36.689029588570484</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>0.48370600000000002</v>
       </c>
@@ -36402,7 +36348,7 @@
         <v>36.331260405465621</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>0.48753999999999997</v>
       </c>
@@ -36575,7 +36521,7 @@
         <v>36.066667749139498</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>0.49968099999999999</v>
       </c>
@@ -36748,7 +36694,7 @@
         <v>35.249189421950113</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>0.50223600000000002</v>
       </c>
@@ -36921,7 +36867,7 @@
         <v>35.08098775682943</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>0.50351400000000002</v>
       </c>
@@ -37094,7 +37040,7 @@
         <v>34.997341129651396</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>0.50607000000000002</v>
       </c>
@@ -37267,7 +37213,7 @@
         <v>34.831012469312249</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>0.50670899999999996</v>
       </c>
@@ -37440,7 +37386,7 @@
         <v>34.78962983348552</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>0.50862600000000002</v>
       </c>
@@ -37613,7 +37559,7 @@
         <v>34.665956920736598</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>0.50926499999999997</v>
       </c>
@@ -37786,7 +37732,7 @@
         <v>34.624890148239182</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>0.50990400000000002</v>
       </c>
@@ -37959,7 +37905,7 @@
         <v>34.583901744201469</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>0.51246000000000003</v>
       </c>
@@ -38132,7 +38078,7 @@
         <v>34.420727088105281</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>0.51437699999999997</v>
       </c>
@@ -38305,7 +38251,7 @@
         <v>34.299157451180513</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>0.51501600000000003</v>
       </c>
@@ -38478,7 +38424,7 @@
         <v>34.258787546118121</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>0.51629400000000003</v>
       </c>
@@ -38651,7 +38597,7 @@
         <v>34.178276320006354</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>0.51693299999999998</v>
       </c>
@@ -38824,7 +38770,7 @@
         <v>34.138134543305533</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>0.52332299999999998</v>
       </c>
@@ -38997,7 +38943,7 @@
         <v>33.740837250274232</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>0.52396200000000004</v>
       </c>
@@ -39170,7 +39116,7 @@
         <v>33.70151469775746</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>0.52460099999999998</v>
       </c>
@@ -39343,7 +39289,7 @@
         <v>33.662265303489981</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>0.52651800000000004</v>
       </c>
@@ -39516,7 +39462,7 @@
         <v>33.54495391856301</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>0.52779600000000004</v>
       </c>
@@ -39689,7 +39635,7 @@
         <v>33.467108190404211</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>0.52907300000000002</v>
       </c>
@@ -39862,7 +39808,7 @@
         <v>33.389610548939473</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>0.53162900000000002</v>
       </c>
@@ -40035,7 +39981,7 @@
         <v>33.235349498409306</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>0.53290700000000002</v>
       </c>
@@ -40208,7 +40154,7 @@
         <v>33.158643568935503</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>0.53354599999999996</v>
       </c>
@@ -40381,7 +40327,7 @@
         <v>33.12039603343311</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>0.53418500000000002</v>
       </c>
@@ -40554,7 +40500,7 @@
         <v>33.082218512097242</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>0.53610199999999997</v>
       </c>
@@ -40727,7 +40673,7 @@
         <v>32.968104007355812</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>0.53674100000000002</v>
       </c>
@@ -40900,7 +40846,7 @@
         <v>32.930204520974556</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>0.53737999999999997</v>
       </c>
@@ -41073,7 +41019,7 @@
         <v>32.892374041911374</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>0.54121399999999997</v>
       </c>
@@ -41246,7 +41192,7 @@
         <v>32.666829233256777</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>0.54376999999999998</v>
       </c>
@@ -41419,7 +41365,7 @@
         <v>32.517821264922652</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>0.54504799999999998</v>
       </c>
@@ -41592,7 +41538,7 @@
         <v>32.443719215730596</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>0.54568700000000003</v>
       </c>
@@ -41765,7 +41711,7 @@
         <v>32.406768007352532</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>0.54888199999999998</v>
       </c>
@@ -41938,7 +41884,7 @@
         <v>32.223002587828354</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>0.54952100000000004</v>
       </c>
@@ -42111,7 +42057,7 @@
         <v>32.186446320466921</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>0.55079900000000004</v>
       </c>
@@ -42284,7 +42230,7 @@
         <v>32.113529120552954</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>0.55143799999999998</v>
       </c>
@@ -42457,7 +42403,7 @@
         <v>32.077167820795239</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>0.55207700000000004</v>
       </c>
@@ -42630,7 +42576,7 @@
         <v>32.040871144217469</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>0.55271599999999999</v>
       </c>
@@ -42803,7 +42749,7 @@
         <v>32.004638908987708</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>0.55335500000000004</v>
       </c>
@@ -42976,7 +42922,7 @@
         <v>31.968470933975944</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>0.55591100000000004</v>
       </c>
@@ -43149,7 +43095,7 @@
         <v>31.824438037886161</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>0.55718800000000002</v>
       </c>
@@ -43322,7 +43268,7 @@
         <v>31.752858446925153</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>0.55974400000000002</v>
       </c>
@@ -43495,7 +43441,7 @@
         <v>31.61034170421393</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>0.56421699999999997</v>
       </c>
@@ -43668,7 +43614,7 @@
         <v>31.363329875048379</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>0.57188499999999998</v>
       </c>
@@ -43841,7 +43787,7 @@
         <v>30.946816877855412</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>0.57635800000000004</v>
       </c>
@@ -44014,7 +43960,7 @@
         <v>30.707801786730705</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>0.57827499999999998</v>
       </c>
@@ -44187,7 +44133,7 @@
         <v>30.606240250195505</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>0.58019200000000004</v>
       </c>
@@ -44360,7 +44306,7 @@
         <v>30.505196698376032</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>0.58849799999999997</v>
       </c>
@@ -44533,7 +44479,7 @@
         <v>30.073277488432268</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>0.58977599999999997</v>
       </c>
@@ -44706,7 +44652,7 @@
         <v>30.007655539021172</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>0.59105399999999997</v>
       </c>
@@ -44879,7 +44825,7 @@
         <v>29.942252980082209</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>0.59233199999999997</v>
       </c>
@@ -45052,7 +44998,7 @@
         <v>29.877068652274666</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>0.59616599999999997</v>
       </c>
@@ -45225,7 +45171,7 @@
         <v>29.682813587675241</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>0.6</v>
       </c>
@@ -45398,7 +45344,7 @@
         <v>29.490481664045326</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>0.60383399999999998</v>
       </c>
@@ -45571,7 +45517,7 @@
         <v>29.300042906155674</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>0.60638999999999998</v>
       </c>
@@ -45744,7 +45690,7 @@
         <v>29.17412097954076</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>0.60766799999999999</v>
       </c>
@@ -45917,7 +45863,7 @@
         <v>29.111467976380723</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>0.60894599999999999</v>
       </c>
@@ -46090,7 +46036,7 @@
         <v>29.049018869464781</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>0.61214100000000005</v>
       </c>
@@ -46263,7 +46209,7 @@
         <v>28.893781285250348</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>0.61277999999999999</v>
       </c>
@@ -46436,7 +46382,7 @@
         <v>28.862884477480208</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>0.61533499999999997</v>
       </c>
@@ -46609,7 +46555,7 @@
         <v>28.739843337973596</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>0.61725200000000002</v>
       </c>
@@ -46782,7 +46728,7 @@
         <v>28.648045695923663</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>0.61916899999999997</v>
       </c>
@@ -46955,7 +46901,7 @@
         <v>28.556689527958646</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>0.62108600000000003</v>
       </c>
@@ -47128,7 +47074,7 @@
         <v>28.465771482636328</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>0.62236400000000003</v>
       </c>
@@ -47301,7 +47247,7 @@
         <v>28.405401214630835</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>0.62428099999999997</v>
       </c>
@@ -47474,7 +47420,7 @@
         <v>28.315206020418529</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>0.62492000000000003</v>
       </c>
@@ -47647,7 +47593,7 @@
         <v>28.285236527773534</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>0.62555899999999998</v>
       </c>
@@ -47820,7 +47766,7 @@
         <v>28.255314621007003</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>0.62747600000000003</v>
       </c>
@@ -47993,7 +47939,7 @@
         <v>28.165833223233037</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>0.63322699999999998</v>
       </c>
@@ -48166,7 +48112,7 @@
         <v>27.899920355725655</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>0.63450499999999999</v>
       </c>
@@ -48339,7 +48285,7 @@
         <v>27.841338275454156</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>0.63770000000000004</v>
       </c>
@@ -48512,7 +48458,7 @@
         <v>27.695683226310351</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>0.64153400000000005</v>
       </c>
@@ -48685,7 +48631,7 @@
         <v>27.522389958613083</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>0.64217299999999999</v>
       </c>
@@ -48858,7 +48804,7 @@
         <v>27.493664519329784</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>0.64472799999999997</v>
       </c>
@@ -49031,7 +48977,7 @@
         <v>27.379251307669954</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>0.65047900000000003</v>
       </c>
@@ -49204,7 +49150,7 @@
         <v>27.124287955085869</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>0.65303500000000003</v>
       </c>
@@ -49377,7 +49323,7 @@
         <v>27.01209636173494</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>0.65559100000000003</v>
       </c>
@@ -49550,7 +49496,7 @@
         <v>26.900587901105347</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>0.65750799999999998</v>
       </c>
@@ -49723,7 +49669,7 @@
         <v>26.81740091344998</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>0.66645399999999999</v>
       </c>
@@ -49896,7 +49842,7 @@
         <v>26.434147343492818</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>0.66964900000000005</v>
       </c>
@@ -50069,7 +50015,7 @@
         <v>26.299213599636523</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>0.68115000000000003</v>
       </c>
@@ -50242,7 +50188,7 @@
         <v>25.821715381949787</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>0.68178899999999998</v>
       </c>
@@ -50415,7 +50361,7 @@
         <v>25.795555702256394</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>0.69073499999999999</v>
       </c>
@@ -50588,7 +50534,7 @@
         <v>25.433309941567948</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>0.69201299999999999</v>
       </c>
@@ -50761,7 +50707,7 @@
         <v>25.382160613347729</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>0.69265200000000005</v>
       </c>
@@ -50934,7 +50880,7 @@
         <v>25.356641475602416</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>0.69584699999999999</v>
       </c>
@@ -51107,7 +51053,7 @@
         <v>25.229597675048886</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>0.69648600000000005</v>
       </c>
@@ -51280,7 +51226,7 @@
         <v>25.204298706015337</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>0.69712499999999999</v>
       </c>
@@ -51453,7 +51399,7 @@
         <v>25.179036139708408</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>0.69776400000000005</v>
       </c>
@@ -51626,7 +51572,7 @@
         <v>25.15380989337622</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>0.699681</v>
       </c>
@@ -51799,7 +51745,7 @@
         <v>25.078348250568794</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>0.70031900000000002</v>
       </c>
@@ -51972,7 +51918,7 @@
         <v>25.053305685305553</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>0.70095799999999997</v>
       </c>
@@ -52145,7 +52091,7 @@
         <v>25.028259750419508</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>0.70415300000000003</v>
       </c>
@@ -52318,7 +52264,7 @@
         <v>24.903565894856953</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>0.70606999999999998</v>
       </c>
@@ -52491,7 +52437,7 @@
         <v>24.829175344163289</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>0.70862599999999998</v>
       </c>
@@ -52664,7 +52610,7 @@
         <v>24.73048021190337</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>0.71054300000000004</v>
       </c>
@@ -52837,7 +52783,7 @@
         <v>24.65682531220434</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>0.71565500000000004</v>
       </c>
@@ -53010,7 +52956,7 @@
         <v>24.461930783061653</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>0.71948900000000005</v>
       </c>
@@ -53183,7 +53129,7 @@
         <v>24.317191235203772</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>0.72012799999999999</v>
       </c>
@@ -53356,7 +53302,7 @@
         <v>24.293185938972051</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>0.72715700000000005</v>
       </c>
@@ -53529,7 +53475,7 @@
         <v>24.031322874100724</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>0.727796</v>
       </c>
@@ -53702,7 +53648,7 @@
         <v>24.007714812330505</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>0.72907299999999997</v>
       </c>
@@ -53875,7 +53821,7 @@
         <v>23.960633335231606</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>0.73546299999999998</v>
       </c>
@@ -54048,7 +53994,7 @@
         <v>23.726979557301512</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>0.73610200000000003</v>
       </c>
@@ -54221,7 +54167,7 @@
         <v>23.703790181926337</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>0.73674099999999998</v>
       </c>
@@ -54394,7 +54340,7 @@
         <v>23.680632530196625</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>0.73993600000000004</v>
       </c>
@@ -54567,7 +54513,7 @@
         <v>23.565317734672604</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>0.74121400000000004</v>
       </c>
@@ -54740,7 +54686,7 @@
         <v>23.51941149888296</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>0.74249200000000004</v>
       </c>
@@ -54913,7 +54859,7 @@
         <v>23.47362998737249</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>0.74313099999999999</v>
       </c>
@@ -55086,7 +55032,7 @@
         <v>23.450785836015875</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>0.74440899999999999</v>
       </c>
@@ -55259,7 +55205,7 @@
         <v>23.40519040940552</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>0.74504800000000004</v>
       </c>
@@ -55432,7 +55378,7 @@
         <v>23.38243900165952</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>0.74568699999999999</v>
       </c>
@@ -55605,7 +55551,7 @@
         <v>23.359718376281677</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>0.74632600000000004</v>
       </c>
@@ -55778,7 +55724,7 @@
         <v>23.337028467510109</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>0.753355</v>
       </c>
@@ -55951,7 +55897,7 @@
         <v>23.089448150310254</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>0.75782700000000003</v>
       </c>
@@ -56124,7 +56070,7 @@
         <v>22.933823455293009</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>0.75846599999999997</v>
       </c>
@@ -56297,7 +56243,7 @@
         <v>22.911704872838783</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>0.75910500000000003</v>
       </c>
@@ -56470,7 +56416,7 @@
         <v>22.88961573132201</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>0.76038300000000003</v>
       </c>
@@ -56643,7 +56589,7 @@
         <v>22.845525523807765</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>0.76677300000000004</v>
       </c>
@@ -56816,7 +56762,7 @@
         <v>22.626820083288919</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>0.76805100000000004</v>
       </c>
@@ -56989,7 +56935,7 @@
         <v>22.58342472376593</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>0.76932900000000004</v>
       </c>
@@ -57162,7 +57108,7 @@
         <v>22.540143489699929</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>0.77252399999999999</v>
       </c>
@@ -57335,7 +57281,7 @@
         <v>22.432436603055812</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>0.77444100000000005</v>
       </c>
@@ -57508,7 +57454,7 @@
         <v>22.368150379362561</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>0.77699700000000005</v>
       </c>
@@ -57681,7 +57627,7 @@
         <v>22.282826394187907</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>0.77827500000000005</v>
       </c>
@@ -57854,7 +57800,7 @@
         <v>22.24033093109049</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>0.78083100000000005</v>
       </c>
@@ -58027,7 +57973,7 @@
         <v>22.155670788697627</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>0.785304</v>
       </c>
@@ -58200,7 +58146,7 @@
         <v>22.008567427490668</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>0.78594200000000003</v>
       </c>
@@ -58373,7 +58319,7 @@
         <v>21.987693754452842</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>0.78785899999999998</v>
       </c>
@@ -58546,7 +58492,7 @@
         <v>21.925135903723685</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>0.79361000000000004</v>
       </c>
@@ -58719,7 +58665,7 @@
         <v>21.738902096332048</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>0.79488800000000004</v>
       </c>
@@ -58892,7 +58838,7 @@
         <v>21.69780732799623</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>0.79552699999999998</v>
       </c>
@@ -59065,7 +59011,7 @@
         <v>21.677299241330509</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>0.80447299999999999</v>
       </c>
@@ -59238,7 +59184,7 @@
         <v>21.392905765138813</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>0.80639000000000005</v>
       </c>
@@ -59411,7 +59357,7 @@
         <v>21.332616928428379</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>0.80894600000000005</v>
       </c>
@@ -59584,7 +59530,7 @@
         <v>21.252585140241386</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>0.81150199999999995</v>
       </c>
@@ -59757,7 +59703,7 @@
         <v>21.172954226965203</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>0.81980799999999998</v>
       </c>
@@ -59930,7 +59876,7 @@
         <v>20.916914897332845</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>0.82236399999999998</v>
       </c>
@@ -60103,7 +60049,7 @@
         <v>20.838952687369499</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>0.82300300000000004</v>
       </c>
@@ -60276,7 +60222,7 @@
         <v>20.819522353968317</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>0.82364199999999999</v>
       </c>
@@ -60449,7 +60395,7 @@
         <v>20.800116014266941</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>0.82683700000000004</v>
       </c>
@@ -60622,7 +60568,7 @@
         <v>20.703442589408525</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>0.83450500000000005</v>
       </c>
@@ -60795,7 +60741,7 @@
         <v>20.473834454335332</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>0.83833899999999995</v>
       </c>
@@ -60968,7 +60914,7 @@
         <v>20.36028649535988</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>0.84664499999999998</v>
       </c>
@@ -61141,7 +61087,7 @@
         <v>20.117111260813573</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>0.84728400000000004</v>
       </c>
@@ -61314,7 +61260,7 @@
         <v>20.098560810188637</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>0.84792299999999998</v>
       </c>
@@ -61487,7 +61433,7 @@
         <v>20.080032661087621</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>0.84856200000000004</v>
       </c>
@@ -61660,7 +61606,7 @@
         <v>20.0615267712164</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>0.85111800000000004</v>
       </c>
@@ -61833,7 +61779,7 @@
         <v>19.987724961981741</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>0.85239600000000004</v>
       </c>
@@ -62006,7 +61952,7 @@
         <v>19.950956521130614</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>0.85303499999999999</v>
       </c>
@@ -62179,7 +62125,7 @@
         <v>19.932605270808466</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>0.85367400000000004</v>
       </c>
@@ -62352,7 +62298,7 @@
         <v>19.914275945284885</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>0.85623000000000005</v>
       </c>
@@ -62525,7 +62471,7 @@
         <v>19.841177066391722</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>0.860703</v>
       </c>
@@ -62698,7 +62644,7 @@
         <v>19.714088659732731</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>0.86134200000000005</v>
       </c>
@@ -62871,7 +62817,7 @@
         <v>19.696019239136923</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>0.861981</v>
       </c>
@@ -63044,7 +62990,7 @@
         <v>19.677971214405538</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>0.864537</v>
       </c>
@@ -63217,7 +63163,7 @@
         <v>19.60599227644407</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>0.86517599999999995</v>
       </c>
@@ -63390,7 +63336,7 @@
         <v>19.588050633664942</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>0.86645399999999995</v>
       </c>
@@ -63563,7 +63509,7 @@
         <v>19.552230781634499</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>0.86773199999999995</v>
       </c>
@@ -63736,7 +63682,7 @@
         <v>19.516495245790743</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>0.868371</v>
       </c>
@@ -63909,7 +63855,7 @@
         <v>19.498658998619362</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>0.86900999999999995</v>
       </c>
@@ -64082,7 +64028,7 @@
         <v>19.48084371331003</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>0.87028799999999995</v>
       </c>
@@ -64255,7 +64201,7 @@
         <v>19.445275872955925</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>0.87220399999999998</v>
       </c>
@@ -64428,7 +64374,7 @@
         <v>19.392108058839106</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>0.87667700000000004</v>
       </c>
@@ -64601,7 +64547,7 @@
         <v>19.268708744625584</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>0.88242799999999999</v>
       </c>
@@ -64774,7 +64720,7 @@
         <v>19.111524150977502</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>0.88306700000000005</v>
       </c>
@@ -64947,7 +64893,7 @@
         <v>19.094160336611104</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>0.88498399999999999</v>
       </c>
@@ -65120,7 +65066,7 @@
         <v>19.0421893027601</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>0.88626199999999999</v>
       </c>
@@ -65293,7 +65239,7 @@
         <v>19.007641922376827</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>0.88690100000000005</v>
       </c>
@@ -65466,7 +65412,7 @@
         <v>18.990398115661826</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>0.88754</v>
       </c>
@@ -65639,7 +65585,7 @@
         <v>18.973174182952242</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>0.88817900000000005</v>
       </c>
@@ -65812,7 +65758,7 @@
         <v>18.955970088126534</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>0.888818</v>
       </c>
@@ -65985,7 +65931,7 @@
         <v>18.938785795153017</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>0.89073500000000005</v>
       </c>
@@ -66158,7 +66104,7 @@
         <v>18.887351368369991</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>0.892652</v>
       </c>
@@ -66331,7 +66277,7 @@
         <v>18.836093869679715</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>0.89329099999999995</v>
       </c>
@@ -66504,7 +66450,7 @@
         <v>18.819047188270282</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>0.89393</v>
       </c>
@@ -66677,7 +66623,7 @@
         <v>18.802020023659516</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>0.89456899999999995</v>
       </c>
@@ -66850,7 +66796,7 @@
         <v>18.785012340611566</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>0.89584699999999995</v>
       </c>
@@ -67023,7 +66969,7 @@
         <v>18.751055278695617</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>0.89648600000000001</v>
       </c>
@@ -67196,7 +67142,7 @@
         <v>18.73410582979001</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>0.89840299999999995</v>
       </c>
@@ -67369,7 +67315,7 @@
         <v>18.683373392867914</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>0.89904200000000001</v>
       </c>
@@ -67542,7 +67488,7 @@
         <v>18.666501101432921</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>0.89968099999999995</v>
       </c>
@@ -67715,7 +67661,7 @@
         <v>18.649648012784596</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>0.90031899999999998</v>
       </c>
@@ -67888,7 +67834,7 @@
         <v>18.63284042166665</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>0.90095800000000004</v>
       </c>
@@ -68061,7 +68007,7 @@
         <v>18.616025605372847</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>0.90287499999999998</v>
       </c>
@@ -68234,7 +68180,7 @@
         <v>18.565695617981355</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>0.90351400000000004</v>
       </c>
@@ -68407,7 +68353,7 @@
         <v>18.548956995595745</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>0.90415299999999998</v>
       </c>
@@ -68580,7 +68526,7 @@
         <v>18.53223733658217</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>0.90543099999999999</v>
       </c>
@@ -68753,7 +68699,7 @@
         <v>18.498854773251878</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>0.90670899999999999</v>
       </c>
@@ -68926,7 +68872,7 @@
         <v>18.465547657978377</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>0.90734800000000004</v>
       </c>
@@ -69099,7 +69045,7 @@
         <v>18.448922309344347</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>0.90798699999999999</v>
       </c>
@@ -69272,7 +69218,7 @@
         <v>18.432315722066093</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>0.90862600000000004</v>
       </c>
@@ -69445,7 +69391,7 @@
         <v>18.415727862761017</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>0.90926499999999999</v>
       </c>
@@ -69618,7 +69564,7 @@
         <v>18.399158698127813</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>0.90990400000000005</v>
       </c>
@@ -69791,7 +69737,7 @@
         <v>18.382608194946187</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>0.91054299999999999</v>
       </c>
@@ -69964,7 +69910,7 @@
         <v>18.366076320076601</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>0.91182099999999999</v>
       </c>
@@ -70137,7 +70083,7 @@
         <v>18.333068323117779</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>0.91246000000000005</v>
       </c>
@@ -70310,7 +70256,7 @@
         <v>18.316592135151062</v>
       </c>
     </row>
-    <row r="405" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>0.91501600000000005</v>
       </c>
@@ -70483,7 +70429,7 @@
         <v>18.250872021852103</v>
       </c>
     </row>
-    <row r="406" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>0.91629400000000005</v>
       </c>
@@ -70656,7 +70602,7 @@
         <v>18.218122291929227</v>
       </c>
     </row>
-    <row r="407" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>0.916933</v>
       </c>
@@ -70829,7 +70775,7 @@
         <v>18.201774895097131</v>
       </c>
     </row>
-    <row r="408" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>0.91884999999999994</v>
       </c>
@@ -71002,7 +70948,7 @@
         <v>18.152842190142579</v>
       </c>
     </row>
-    <row r="409" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>0.920767</v>
       </c>
@@ -71175,7 +71121,7 @@
         <v>18.104073039959566</v>
       </c>
     </row>
-    <row r="410" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>0.92268399999999995</v>
       </c>
@@ -71348,7 +71294,7 @@
         <v>18.055466583766076</v>
       </c>
     </row>
-    <row r="411" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>0.92587900000000001</v>
       </c>
@@ -71521,7 +71467,7 @@
         <v>17.974815047305768</v>
       </c>
     </row>
-    <row r="412" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>0.92843500000000001</v>
       </c>
@@ -71694,7 +71640,7 @@
         <v>17.910614863810522</v>
       </c>
     </row>
-    <row r="413" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>0.93035100000000004</v>
       </c>
@@ -71867,7 +71813,7 @@
         <v>17.862675677750737</v>
       </c>
     </row>
-    <row r="414" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>0.93162900000000004</v>
       </c>
@@ -72040,7 +71986,7 @@
         <v>17.830787609125181</v>
       </c>
     </row>
-    <row r="415" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>0.93290700000000004</v>
       </c>
@@ -72213,7 +72159,7 @@
         <v>17.79896973234731</v>
       </c>
     </row>
-    <row r="416" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>0.93354599999999999</v>
       </c>
@@ -72386,7 +72332,7 @@
         <v>17.78308703978751</v>
       </c>
     </row>
-    <row r="417" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>0.93418500000000004</v>
       </c>
@@ -72559,7 +72505,7 @@
         <v>17.767221803997636</v>
       </c>
     </row>
-    <row r="418" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>0.93482399999999999</v>
       </c>
@@ -72732,7 +72678,7 @@
         <v>17.751373994730557</v>
       </c>
     </row>
-    <row r="419" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>0.93546300000000004</v>
       </c>
@@ -72905,7 +72851,7 @@
         <v>17.735543581810767</v>
       </c>
     </row>
-    <row r="420" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>0.93610199999999999</v>
       </c>
@@ -73078,7 +73024,7 @@
         <v>17.719730535134289</v>
       </c>
     </row>
-    <row r="421" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>0.93674100000000005</v>
       </c>
@@ -73251,7 +73197,7 @@
         <v>17.703934824668394</v>
       </c>
     </row>
-    <row r="422" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>0.93737999999999999</v>
       </c>
@@ -73424,7 +73370,7 @@
         <v>17.688156420451406</v>
       </c>
     </row>
-    <row r="423" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>0.93865799999999999</v>
       </c>
@@ -73597,7 +73543,7 @@
         <v>17.656651411271383</v>
       </c>
     </row>
-    <row r="424" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>0.94185300000000005</v>
       </c>
@@ -73770,7 +73716,7 @@
         <v>17.578189663942879</v>
       </c>
     </row>
-    <row r="425" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>0.942492</v>
       </c>
@@ -73943,7 +73889,7 @@
         <v>17.562548639552546</v>
       </c>
     </row>
-    <row r="426" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>0.94377</v>
       </c>
@@ -74116,7 +74062,7 @@
         <v>17.531317680777256</v>
       </c>
     </row>
-    <row r="427" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>0.945048</v>
       </c>
@@ -74289,7 +74235,7 @@
         <v>17.500154647267351</v>
       </c>
     </row>
-    <row r="428" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>0.94824299999999995</v>
       </c>
@@ -74462,7 +74408,7 @@
         <v>17.422542711911305</v>
       </c>
     </row>
-    <row r="429" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>0.95016</v>
       </c>
@@ -74635,7 +74581,7 @@
         <v>17.376177127570458</v>
       </c>
     </row>
-    <row r="430" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>0.95207699999999995</v>
       </c>
@@ -74808,7 +74754,7 @@
         <v>17.329961781482218</v>
       </c>
     </row>
-    <row r="431" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>0.95271600000000001</v>
       </c>

--- a/Raw_data_cleaned/Burley/Burley22.xlsx
+++ b/Raw_data_cleaned/Burley/Burley22.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{635CE935-0766-9245-BFD8-169A75364ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{087B8BE6-9064-4EEE-873C-0807D45748D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8360" yWindow="2250" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="32" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection sqref="A1:BE431"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6.3900000000000003E-4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>285.02839307960699</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.2780000000000001E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>279.10946858030252</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.9170000000000001E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>274.04419046350796</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2.5560000000000001E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>269.5058219689576</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3.1949999999999999E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>265.34754047214909</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4.4730000000000004E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>257.86559432964782</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8.9460000000000008E-3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>237.02304206497178</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9.5849999999999998E-3</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>234.50403063401501</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1.0224E-2</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>232.07120857619813</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.0862999999999999E-2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>229.71829584716448</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1.1502E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>227.43976834339512</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1.2141000000000001E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>225.23073045822545</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1.278E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>223.0868148261672</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1.3419E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>221.00410235634982</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1.4057999999999999E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>218.97905765784679</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1.7252E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>209.61878974126074</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2.4281E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>192.4590545415474</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2.9392999999999999E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>182.12598854878917</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3.1309999999999998E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>178.60902444147516</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4.0256E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>164.21556057763107</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>4.4727999999999997E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>158.03010991348563</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>4.6644999999999999E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>155.54744069000361</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4.9840000000000002E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>151.6109240549533</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5.1117999999999997E-2</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>150.1019135938146</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>5.2395999999999998E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>148.62811693947157</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5.3034999999999999E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>147.90398562500741</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>5.3673999999999999E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>147.18814211181797</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>5.6230000000000002E-2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>144.40448062759313</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>6.0703E-2</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>139.81769044784554</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>6.7732000000000001E-2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>133.25149248025548</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>7.4121000000000006E-2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>127.86386237111908</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7.5398999999999994E-2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>126.84474431776196</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>8.0510999999999999E-2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>122.94462807929999</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8.3706000000000003E-2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>120.64026897454791</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>8.5623000000000005E-2</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>119.30322459366373</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>9.5847000000000002E-2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>112.690840981645</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0.10159700000000001</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>109.31224764531562</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0.104153</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>107.88002822209059</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.104792</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>107.52830462598224</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0.111182</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>104.1425590349601</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>0.139297</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>91.590271126589755</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0.14888199999999999</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>88.003829751825123</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0.15335499999999999</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>86.427690265900424</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0.15463299999999999</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>85.987985844610904</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0.157827</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>84.908902442644148</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>0.158466</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>84.696343520411389</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.161661</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>83.649679030136241</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.162939</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>83.238376917861373</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.166773</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>82.028841174701128</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.16741200000000001</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>81.830720907750731</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.16932900000000001</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>81.242150423686113</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>0.17252400000000001</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>80.280050086424026</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0.17763599999999999</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>78.787712070734059</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.17955299999999999</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>78.242406423644326</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0.191693</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>74.957470118016062</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.19872200000000001</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>73.178291746304268</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.19936100000000001</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>73.020694588928833</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.2</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>72.863767914727859</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0.20319499999999999</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>72.089032693102496</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>0.20575099999999999</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>71.48085655984066</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.20830699999999999</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>70.882705105557136</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.213419</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>69.715431303241402</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.214696</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>69.429700674633594</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.216613</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>69.005044073191669</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.22683700000000001</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>66.823117004115517</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.22939300000000001</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>66.298427513398721</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.23003199999999999</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>66.168499108512009</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.23067099999999999</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>66.039062237413958</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.240895</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>64.032561970359055</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.242812</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>63.669331642384968</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.244089</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>63.429551274892468</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.247923</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>62.719917867991448</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.25047900000000001</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>62.255195433604008</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.25111800000000001</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>62.140038935063082</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.25175700000000001</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>62.025287456555155</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.25239600000000001</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>61.910938717669445</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.25559100000000001</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>61.345157536478844</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.25750800000000001</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>61.010379563355805</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.26262000000000002</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>60.134337500418773</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.26325900000000002</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>60.026502978479762</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.26389800000000002</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>59.91903302193041</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.26837100000000003</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>59.176787406198109</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.27092699999999997</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>58.760371378366919</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.271565</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>58.657287866202672</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.272843</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>58.451815525606314</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.27667700000000001</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>57.843418134629097</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.27731600000000001</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>57.743169871320696</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.27795500000000001</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>57.643246005192957</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.27859400000000001</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>57.54364485887691</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.28051100000000001</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>57.246761144155833</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.28370600000000001</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>56.758256220717648</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.28562300000000002</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>56.468863805990189</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.28626200000000002</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>56.373008716206222</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.28754000000000002</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>56.182202914090659</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.29393000000000002</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>55.245873891574</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.29648600000000003</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>54.879386097818134</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.29712499999999997</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>54.788464772415985</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.29840299999999997</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>54.607453309359848</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.29968099999999998</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>54.427541129491338</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.300958</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>54.248857099843754</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.301597</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>54.159849872085836</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.302236</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>54.071110884580683</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.30415300000000001</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>53.806490507476106</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.30479200000000001</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>53.718811667379377</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.30543100000000001</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>53.63139470298561</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.30670900000000001</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>53.457341418275909</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.30798700000000001</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>53.284320768901161</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.30862600000000001</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>53.198194628923325</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.30990400000000001</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>53.026704680939226</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.31054300000000001</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>52.941338481510506</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.31182100000000001</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>52.771357711333089</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.31373800000000002</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>52.518248095411487</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.31821100000000002</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>51.936185927833257</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.32140600000000003</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>51.527568954264773</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.32204500000000003</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>51.446545615617502</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.32396200000000003</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>51.204856656988021</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.32460099999999997</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>51.124750549711941</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.32523999999999997</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>51.044871161409979</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.32587899999999997</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>50.965217469433092</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.32715699999999998</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>50.80658311560456</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.329073</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>50.57042184347015</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.32971200000000001</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>50.492100863388366</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.33035100000000001</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>50.413998597882475</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.33162900000000001</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>50.258446323882019</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.33226800000000001</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>50.180994386903983</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.33290700000000001</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>50.103757307441846</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.33354600000000001</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>50.026734135919945</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.33546300000000001</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>49.79693865973281</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.33610200000000001</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>49.720761739227036</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.33738000000000001</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>49.56903472047231</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.33801900000000001</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>49.493482796669646</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.33865800000000001</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>49.418137388705865</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.33993600000000002</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>49.268062529277564</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.34185300000000002</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>49.044476805797565</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.34377000000000002</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>48.822701925274281</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.34440900000000002</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>48.749175338938393</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.34568700000000002</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>48.602714607282685</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.34696500000000002</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>48.45703817542185</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.34760400000000002</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>48.384491982429758</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.34824300000000002</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>48.31213936682051</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.35335499999999997</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>47.740189546019351</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.35399399999999998</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>47.669542690642523</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.35591099999999998</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>47.458712422278012</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.35782700000000001</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>47.249640141045461</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.35846600000000001</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>47.180275828803161</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.36166100000000001</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>46.836142865089101</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.36230000000000001</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>46.767848834269998</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.36357800000000001</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>46.63178751513869</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.36485600000000001</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>46.496423738139313</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.36549500000000001</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>46.42900165011023</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.36677300000000002</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>46.294673554222776</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.36869000000000002</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>46.094461166413033</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.36932900000000002</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>46.028062214066118</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.37252400000000002</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>45.698575723552302</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.37380200000000002</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>45.567939171154642</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.37635800000000003</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>45.308622344492868</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.37699700000000003</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>45.244196922030724</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.37763600000000003</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>45.179931733529386</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.37891399999999997</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>45.051879526841816</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.37955299999999997</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>44.98809125147352</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.38019199999999997</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>44.924460695654162</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.38402599999999998</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>44.545954979458884</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.38530399999999998</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>44.421020440150045</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.38722000000000001</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>44.2348559024773</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.38785900000000001</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>44.173070322026227</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.38977600000000001</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>43.988610757483833</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.39169300000000001</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>43.805484911523216</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.39424900000000002</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>43.563365406954745</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.39616600000000002</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>43.38329254518063</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.4</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>43.026983407174313</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.40702899999999997</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>42.386707129870736</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.40766799999999997</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>42.329313188580713</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.41150199999999998</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>41.987732295758015</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.41214099999999998</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>41.931261404935221</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.41405799999999998</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>41.762626449442863</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.41469600000000001</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>41.706759926350948</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.41597400000000001</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>41.595235237073567</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.41661300000000001</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>41.539663807867733</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.41916900000000001</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>41.318640135330519</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.41980800000000001</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>41.26369745282063</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.42044700000000002</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>41.208879162279089</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.42172500000000002</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>41.099613970384262</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.42236400000000002</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>41.045166181186211</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.42300300000000002</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>40.990841008239229</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.42428100000000002</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>40.882556759370061</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.42492000000000002</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>40.828596812959965</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.42939300000000002</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>40.454237765507102</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.43003200000000003</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>40.401232899921361</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.43067100000000003</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>40.34834552830052</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.43514399999999998</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>39.981389276983741</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.43642199999999998</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>39.877578844028328</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.43769999999999998</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>39.774222204236651</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.43897799999999998</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>39.671316213021122</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.44089499999999998</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>39.517795387019255</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.44536700000000001</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>39.163516623536353</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.44600600000000001</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>39.113329346628063</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.44920100000000002</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>38.864001608108737</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.45239600000000002</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>38.617321775960498</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.45495200000000002</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>38.421854533276296</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.45623000000000002</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>38.32473877412243</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.46006399999999997</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>38.035830089015235</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.46198099999999998</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>37.8927308024615</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.46709299999999998</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>37.515467103488113</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.47028799999999998</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>37.282823181923291</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.47476000000000002</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>36.961170959193417</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.47859400000000002</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>36.689029588570484</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.48370600000000002</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>36.331260405465621</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.48753999999999997</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>36.066667749139498</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.49968099999999999</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>35.249189421950113</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.50223600000000002</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>35.08098775682943</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.50351400000000002</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>34.997341129651396</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.50607000000000002</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>34.831012469312249</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.50670899999999996</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>34.78962983348552</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.50862600000000002</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>34.665956920736598</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.50926499999999997</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>34.624890148239182</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.50990400000000002</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>34.583901744201469</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.51246000000000003</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>34.420727088105281</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.51437699999999997</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>34.299157451180513</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.51501600000000003</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>34.258787546118121</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.51629400000000003</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>34.178276320006354</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.51693299999999998</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>34.138134543305533</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.52332299999999998</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>33.740837250274232</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.52396200000000004</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>33.70151469775746</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.52460099999999998</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>33.662265303489981</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.52651800000000004</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>33.54495391856301</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.52779600000000004</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>33.467108190404211</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.52907300000000002</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>33.389610548939473</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.53162900000000002</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>33.235349498409306</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.53290700000000002</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>33.158643568935503</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.53354599999999996</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>33.12039603343311</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.53418500000000002</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>33.082218512097242</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.53610199999999997</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>32.968104007355812</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.53674100000000002</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>32.930204520974556</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.53737999999999997</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>32.892374041911374</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.54121399999999997</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>32.666829233256777</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.54376999999999998</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>32.517821264922652</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.54504799999999998</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>32.443719215730596</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.54568700000000003</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>32.406768007352532</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.54888199999999998</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>32.223002587828354</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.54952100000000004</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>32.186446320466921</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.55079900000000004</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>32.113529120552954</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.55143799999999998</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>32.077167820795239</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.55207700000000004</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>32.040871144217469</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.55271599999999999</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>32.004638908987708</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.55335500000000004</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>31.968470933975944</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.55591100000000004</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>31.824438037886161</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.55718800000000002</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>31.752858446925153</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.55974400000000002</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>31.61034170421393</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.56421699999999997</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>31.363329875048379</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.57188499999999998</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>30.946816877855412</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.57635800000000004</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>30.707801786730705</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.57827499999999998</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>30.606240250195505</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.58019200000000004</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>30.505196698376032</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.58849799999999997</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>30.073277488432268</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.58977599999999997</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>30.007655539021172</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.59105399999999997</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>29.942252980082209</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.59233199999999997</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>29.877068652274666</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.59616599999999997</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>29.682813587675241</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.6</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>29.490481664045326</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.60383399999999998</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>29.300042906155674</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.60638999999999998</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>29.17412097954076</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.60766799999999999</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>29.111467976380723</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.60894599999999999</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>29.049018869464781</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.61214100000000005</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>28.893781285250348</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.61277999999999999</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>28.862884477480208</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.61533499999999997</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>28.739843337973596</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.61725200000000002</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>28.648045695923663</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.61916899999999997</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>28.556689527958646</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.62108600000000003</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>28.465771482636328</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.62236400000000003</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>28.405401214630835</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.62428099999999997</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>28.315206020418529</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.62492000000000003</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>28.285236527773534</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.62555899999999998</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>28.255314621007003</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.62747600000000003</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>28.165833223233037</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.63322699999999998</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>27.899920355725655</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.63450499999999999</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>27.841338275454156</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.63770000000000004</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>27.695683226310351</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.64153400000000005</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>27.522389958613083</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.64217299999999999</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>27.493664519329784</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.64472799999999997</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>27.379251307669954</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.65047900000000003</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>27.124287955085869</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.65303500000000003</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>27.01209636173494</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.65559100000000003</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>26.900587901105347</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.65750799999999998</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>26.81740091344998</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.66645399999999999</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>26.434147343492818</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.66964900000000005</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>26.299213599636523</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.68115000000000003</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>25.821715381949787</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.68178899999999998</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>25.795555702256394</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.69073499999999999</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>25.433309941567948</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.69201299999999999</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>25.382160613347729</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.69265200000000005</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>25.356641475602416</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.69584699999999999</v>
       </c>
@@ -51053,7 +51053,7 @@
         <v>25.229597675048886</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.69648600000000005</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>25.204298706015337</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.69712499999999999</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>25.179036139708408</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.69776400000000005</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>25.15380989337622</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.699681</v>
       </c>
@@ -51745,7 +51745,7 @@
         <v>25.078348250568794</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.70031900000000002</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>25.053305685305553</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.70095799999999997</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>25.028259750419508</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.70415300000000003</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>24.903565894856953</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.70606999999999998</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>24.829175344163289</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.70862599999999998</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>24.73048021190337</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.71054300000000004</v>
       </c>
@@ -52783,7 +52783,7 @@
         <v>24.65682531220434</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.71565500000000004</v>
       </c>
@@ -52956,7 +52956,7 @@
         <v>24.461930783061653</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.71948900000000005</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>24.317191235203772</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>0.72012799999999999</v>
       </c>
@@ -53302,7 +53302,7 @@
         <v>24.293185938972051</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>0.72715700000000005</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>24.031322874100724</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>0.727796</v>
       </c>
@@ -53648,7 +53648,7 @@
         <v>24.007714812330505</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>0.72907299999999997</v>
       </c>
@@ -53821,7 +53821,7 @@
         <v>23.960633335231606</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>0.73546299999999998</v>
       </c>
@@ -53994,7 +53994,7 @@
         <v>23.726979557301512</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>0.73610200000000003</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>23.703790181926337</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>0.73674099999999998</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>23.680632530196625</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>0.73993600000000004</v>
       </c>
@@ -54513,7 +54513,7 @@
         <v>23.565317734672604</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>0.74121400000000004</v>
       </c>
@@ -54686,7 +54686,7 @@
         <v>23.51941149888296</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>0.74249200000000004</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>23.47362998737249</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>0.74313099999999999</v>
       </c>
@@ -55032,7 +55032,7 @@
         <v>23.450785836015875</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>0.74440899999999999</v>
       </c>
@@ -55205,7 +55205,7 @@
         <v>23.40519040940552</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>0.74504800000000004</v>
       </c>
@@ -55378,7 +55378,7 @@
         <v>23.38243900165952</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>0.74568699999999999</v>
       </c>
@@ -55551,7 +55551,7 @@
         <v>23.359718376281677</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>0.74632600000000004</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>23.337028467510109</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>0.753355</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>23.089448150310254</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>0.75782700000000003</v>
       </c>
@@ -56070,7 +56070,7 @@
         <v>22.933823455293009</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>0.75846599999999997</v>
       </c>
@@ -56243,7 +56243,7 @@
         <v>22.911704872838783</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>0.75910500000000003</v>
       </c>
@@ -56416,7 +56416,7 @@
         <v>22.88961573132201</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>0.76038300000000003</v>
       </c>
@@ -56589,7 +56589,7 @@
         <v>22.845525523807765</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>0.76677300000000004</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>22.626820083288919</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>0.76805100000000004</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>22.58342472376593</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>0.76932900000000004</v>
       </c>
@@ -57108,7 +57108,7 @@
         <v>22.540143489699929</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>0.77252399999999999</v>
       </c>
@@ -57281,7 +57281,7 @@
         <v>22.432436603055812</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>0.77444100000000005</v>
       </c>
@@ -57454,7 +57454,7 @@
         <v>22.368150379362561</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>0.77699700000000005</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>22.282826394187907</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>0.77827500000000005</v>
       </c>
@@ -57800,7 +57800,7 @@
         <v>22.24033093109049</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>0.78083100000000005</v>
       </c>
@@ -57973,7 +57973,7 @@
         <v>22.155670788697627</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>0.785304</v>
       </c>
@@ -58146,7 +58146,7 @@
         <v>22.008567427490668</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>0.78594200000000003</v>
       </c>
@@ -58319,7 +58319,7 @@
         <v>21.987693754452842</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>0.78785899999999998</v>
       </c>
@@ -58492,7 +58492,7 @@
         <v>21.925135903723685</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>0.79361000000000004</v>
       </c>
@@ -58665,7 +58665,7 @@
         <v>21.738902096332048</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>0.79488800000000004</v>
       </c>
@@ -58838,7 +58838,7 @@
         <v>21.69780732799623</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>0.79552699999999998</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>21.677299241330509</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>0.80447299999999999</v>
       </c>
@@ -59184,7 +59184,7 @@
         <v>21.392905765138813</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>0.80639000000000005</v>
       </c>
@@ -59357,7 +59357,7 @@
         <v>21.332616928428379</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>0.80894600000000005</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>21.252585140241386</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>0.81150199999999995</v>
       </c>
@@ -59703,7 +59703,7 @@
         <v>21.172954226965203</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>0.81980799999999998</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v>20.916914897332845</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>0.82236399999999998</v>
       </c>
@@ -60049,7 +60049,7 @@
         <v>20.838952687369499</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>0.82300300000000004</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>20.819522353968317</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>0.82364199999999999</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>20.800116014266941</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>0.82683700000000004</v>
       </c>
@@ -60568,7 +60568,7 @@
         <v>20.703442589408525</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>0.83450500000000005</v>
       </c>
@@ -60741,7 +60741,7 @@
         <v>20.473834454335332</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>0.83833899999999995</v>
       </c>
@@ -60914,7 +60914,7 @@
         <v>20.36028649535988</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>0.84664499999999998</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>20.117111260813573</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>0.84728400000000004</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>20.098560810188637</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>0.84792299999999998</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>20.080032661087621</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>0.84856200000000004</v>
       </c>
@@ -61606,7 +61606,7 @@
         <v>20.0615267712164</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>0.85111800000000004</v>
       </c>
@@ -61779,7 +61779,7 @@
         <v>19.987724961981741</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>0.85239600000000004</v>
       </c>
@@ -61952,7 +61952,7 @@
         <v>19.950956521130614</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>0.85303499999999999</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>19.932605270808466</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>0.85367400000000004</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>19.914275945284885</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>0.85623000000000005</v>
       </c>
@@ -62471,7 +62471,7 @@
         <v>19.841177066391722</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>0.860703</v>
       </c>
@@ -62644,7 +62644,7 @@
         <v>19.714088659732731</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>0.86134200000000005</v>
       </c>
@@ -62817,7 +62817,7 @@
         <v>19.696019239136923</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>0.861981</v>
       </c>
@@ -62990,7 +62990,7 @@
         <v>19.677971214405538</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>0.864537</v>
       </c>
@@ -63163,7 +63163,7 @@
         <v>19.60599227644407</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>0.86517599999999995</v>
       </c>
@@ -63336,7 +63336,7 @@
         <v>19.588050633664942</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>0.86645399999999995</v>
       </c>
@@ -63509,7 +63509,7 @@
         <v>19.552230781634499</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>0.86773199999999995</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>19.516495245790743</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>0.868371</v>
       </c>
@@ -63855,7 +63855,7 @@
         <v>19.498658998619362</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>0.86900999999999995</v>
       </c>
@@ -64028,7 +64028,7 @@
         <v>19.48084371331003</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>0.87028799999999995</v>
       </c>
@@ -64201,7 +64201,7 @@
         <v>19.445275872955925</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>0.87220399999999998</v>
       </c>
@@ -64374,7 +64374,7 @@
         <v>19.392108058839106</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>0.87667700000000004</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>19.268708744625584</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>0.88242799999999999</v>
       </c>
@@ -64720,7 +64720,7 @@
         <v>19.111524150977502</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>0.88306700000000005</v>
       </c>
@@ -64893,7 +64893,7 @@
         <v>19.094160336611104</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>0.88498399999999999</v>
       </c>
@@ -65066,7 +65066,7 @@
         <v>19.0421893027601</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>0.88626199999999999</v>
       </c>
@@ -65239,7 +65239,7 @@
         <v>19.007641922376827</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>0.88690100000000005</v>
       </c>
@@ -65412,7 +65412,7 @@
         <v>18.990398115661826</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>0.88754</v>
       </c>
@@ -65585,7 +65585,7 @@
         <v>18.973174182952242</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>0.88817900000000005</v>
       </c>
@@ -65758,7 +65758,7 @@
         <v>18.955970088126534</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>0.888818</v>
       </c>
@@ -65931,7 +65931,7 @@
         <v>18.938785795153017</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>0.89073500000000005</v>
       </c>
@@ -66104,7 +66104,7 @@
         <v>18.887351368369991</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>0.892652</v>
       </c>
@@ -66277,7 +66277,7 @@
         <v>18.836093869679715</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>0.89329099999999995</v>
       </c>
@@ -66450,7 +66450,7 @@
         <v>18.819047188270282</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>0.89393</v>
       </c>
@@ -66623,7 +66623,7 @@
         <v>18.802020023659516</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>0.89456899999999995</v>
       </c>
@@ -66796,7 +66796,7 @@
         <v>18.785012340611566</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>0.89584699999999995</v>
       </c>
@@ -66969,7 +66969,7 @@
         <v>18.751055278695617</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>0.89648600000000001</v>
       </c>
@@ -67142,7 +67142,7 @@
         <v>18.73410582979001</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>0.89840299999999995</v>
       </c>
@@ -67315,7 +67315,7 @@
         <v>18.683373392867914</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>0.89904200000000001</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>18.666501101432921</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>0.89968099999999995</v>
       </c>
@@ -67661,7 +67661,7 @@
         <v>18.649648012784596</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>0.90031899999999998</v>
       </c>
@@ -67834,7 +67834,7 @@
         <v>18.63284042166665</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>0.90095800000000004</v>
       </c>
@@ -68007,7 +68007,7 @@
         <v>18.616025605372847</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>0.90287499999999998</v>
       </c>
@@ -68180,7 +68180,7 @@
         <v>18.565695617981355</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>0.90351400000000004</v>
       </c>
@@ -68353,7 +68353,7 @@
         <v>18.548956995595745</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>0.90415299999999998</v>
       </c>
@@ -68526,7 +68526,7 @@
         <v>18.53223733658217</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>0.90543099999999999</v>
       </c>
@@ -68699,7 +68699,7 @@
         <v>18.498854773251878</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>0.90670899999999999</v>
       </c>
@@ -68872,7 +68872,7 @@
         <v>18.465547657978377</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>0.90734800000000004</v>
       </c>
@@ -69045,7 +69045,7 @@
         <v>18.448922309344347</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>0.90798699999999999</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>18.432315722066093</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>0.90862600000000004</v>
       </c>
@@ -69391,7 +69391,7 @@
         <v>18.415727862761017</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>0.90926499999999999</v>
       </c>
@@ -69564,7 +69564,7 @@
         <v>18.399158698127813</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>0.90990400000000005</v>
       </c>
@@ -69737,7 +69737,7 @@
         <v>18.382608194946187</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>0.91054299999999999</v>
       </c>
@@ -69910,7 +69910,7 @@
         <v>18.366076320076601</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>0.91182099999999999</v>
       </c>
@@ -70083,7 +70083,7 @@
         <v>18.333068323117779</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>0.91246000000000005</v>
       </c>
@@ -70256,7 +70256,7 @@
         <v>18.316592135151062</v>
       </c>
     </row>
-    <row r="405" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>0.91501600000000005</v>
       </c>
@@ -70429,7 +70429,7 @@
         <v>18.250872021852103</v>
       </c>
     </row>
-    <row r="406" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>0.91629400000000005</v>
       </c>
@@ -70602,7 +70602,7 @@
         <v>18.218122291929227</v>
       </c>
     </row>
-    <row r="407" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>0.916933</v>
       </c>
@@ -70775,7 +70775,7 @@
         <v>18.201774895097131</v>
       </c>
     </row>
-    <row r="408" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>0.91884999999999994</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>18.152842190142579</v>
       </c>
     </row>
-    <row r="409" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>0.920767</v>
       </c>
@@ -71121,7 +71121,7 @@
         <v>18.104073039959566</v>
       </c>
     </row>
-    <row r="410" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>0.92268399999999995</v>
       </c>
@@ -71294,7 +71294,7 @@
         <v>18.055466583766076</v>
       </c>
     </row>
-    <row r="411" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>0.92587900000000001</v>
       </c>
@@ -71467,7 +71467,7 @@
         <v>17.974815047305768</v>
       </c>
     </row>
-    <row r="412" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>0.92843500000000001</v>
       </c>
@@ -71640,7 +71640,7 @@
         <v>17.910614863810522</v>
       </c>
     </row>
-    <row r="413" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>0.93035100000000004</v>
       </c>
@@ -71813,7 +71813,7 @@
         <v>17.862675677750737</v>
       </c>
     </row>
-    <row r="414" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>0.93162900000000004</v>
       </c>
@@ -71986,7 +71986,7 @@
         <v>17.830787609125181</v>
       </c>
     </row>
-    <row r="415" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>0.93290700000000004</v>
       </c>
@@ -72159,7 +72159,7 @@
         <v>17.79896973234731</v>
       </c>
     </row>
-    <row r="416" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>0.93354599999999999</v>
       </c>
@@ -72332,7 +72332,7 @@
         <v>17.78308703978751</v>
       </c>
     </row>
-    <row r="417" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>0.93418500000000004</v>
       </c>
@@ -72505,7 +72505,7 @@
         <v>17.767221803997636</v>
       </c>
     </row>
-    <row r="418" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>0.93482399999999999</v>
       </c>
@@ -72678,7 +72678,7 @@
         <v>17.751373994730557</v>
       </c>
     </row>
-    <row r="419" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>0.93546300000000004</v>
       </c>
@@ -72851,7 +72851,7 @@
         <v>17.735543581810767</v>
       </c>
     </row>
-    <row r="420" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>0.93610199999999999</v>
       </c>
@@ -73024,7 +73024,7 @@
         <v>17.719730535134289</v>
       </c>
     </row>
-    <row r="421" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>0.93674100000000005</v>
       </c>
@@ -73197,7 +73197,7 @@
         <v>17.703934824668394</v>
       </c>
     </row>
-    <row r="422" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>0.93737999999999999</v>
       </c>
@@ -73370,7 +73370,7 @@
         <v>17.688156420451406</v>
       </c>
     </row>
-    <row r="423" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>0.93865799999999999</v>
       </c>
@@ -73543,7 +73543,7 @@
         <v>17.656651411271383</v>
       </c>
     </row>
-    <row r="424" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>0.94185300000000005</v>
       </c>
@@ -73716,7 +73716,7 @@
         <v>17.578189663942879</v>
       </c>
     </row>
-    <row r="425" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>0.942492</v>
       </c>
@@ -73889,7 +73889,7 @@
         <v>17.562548639552546</v>
       </c>
     </row>
-    <row r="426" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>0.94377</v>
       </c>
@@ -74062,7 +74062,7 @@
         <v>17.531317680777256</v>
       </c>
     </row>
-    <row r="427" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>0.945048</v>
       </c>
@@ -74235,7 +74235,7 @@
         <v>17.500154647267351</v>
       </c>
     </row>
-    <row r="428" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>0.94824299999999995</v>
       </c>
@@ -74408,7 +74408,7 @@
         <v>17.422542711911305</v>
       </c>
     </row>
-    <row r="429" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>0.95016</v>
       </c>
@@ -74581,7 +74581,7 @@
         <v>17.376177127570458</v>
       </c>
     </row>
-    <row r="430" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>0.95207699999999995</v>
       </c>
@@ -74754,7 +74754,7 @@
         <v>17.329961781482218</v>
       </c>
     </row>
-    <row r="431" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>0.95271600000000001</v>
       </c>
